--- a/mySystem/mySystem/xls/BPVBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1938,37 +1938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生产指令编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产批号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>标签：中文□   英文□</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2252,6 +2221,18 @@
   </si>
   <si>
     <t>SOP-MFG-109-R01A</t>
+  </si>
+  <si>
+    <t>生产指令编号：hgf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码：1100068-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产批号：111222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3227,6 +3208,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3286,21 +3282,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4812,6 +4793,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -4823,11 +4809,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4880,126 +4861,126 @@
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="P1" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-    </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="114"/>
+      <c r="P3" s="94"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="E4" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="F4" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="G4" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="M4" s="105"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="P4" s="108" t="s">
         <v>75</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="103" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="116"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="94"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="K5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="L5" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="M5" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="N5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5242,60 +5223,55 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="109"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
+      <c r="A19" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5310,6 +5286,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
